--- a/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:11:35+00:00</t>
+    <t>2026-02-24T10:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>FRANCE</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:44:05+00:00</t>
+    <t>2026-02-24T16:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:15:31+00:00</t>
+    <t>2026-02-25T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:31:26+00:00</t>
+    <t>2026-02-25T08:48:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:48:17+00:00</t>
+    <t>2026-02-26T17:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -458,22 +458,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>DeviceDefinition.extension:CodeEMDN</t>
-  </si>
-  <si>
-    <t>CodeEMDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tdmi/StructureDefinition/dmi-code-emdn}
-</t>
-  </si>
-  <si>
-    <t>DMI Code EMDN</t>
-  </si>
-  <si>
-    <t>Extension créée dans ce volet pour représenter le code EMDN.</t>
   </si>
   <si>
     <t>DeviceDefinition.extension:ReferenceDistributeur</t>
@@ -1713,7 +1697,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL125"/>
+  <dimension ref="A1:AL124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2956,41 +2940,43 @@
         <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
@@ -3038,7 +3024,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3047,7 +3033,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>136</v>
@@ -3056,19 +3042,19 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3081,26 +3067,22 @@
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O13" t="s" s="2">
         <v>158</v>
       </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -3148,7 +3130,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3160,13 +3142,13 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -3269,7 +3251,7 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -3277,10 +3259,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3291,7 +3273,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3303,13 +3285,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3360,44 +3342,44 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3409,7 +3391,7 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>171</v>
@@ -3417,7 +3399,9 @@
       <c r="M16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3472,31 +3456,31 @@
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3509,10 +3493,10 @@
         <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>130</v>
@@ -3524,9 +3508,11 @@
         <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3592,7 +3578,7 @@
         <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -3604,39 +3590,35 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3684,33 +3666,33 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3733,13 +3715,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3790,7 +3772,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>85</v>
@@ -3813,10 +3795,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3842,10 +3824,10 @@
         <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3896,7 +3878,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>85</v>
@@ -3919,10 +3901,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3930,7 +3912,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>85</v>
@@ -3945,13 +3927,13 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4002,10 +3984,10 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>85</v>
@@ -4017,18 +3999,18 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>75</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4039,7 +4021,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4051,7 +4033,7 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>195</v>
@@ -4108,13 +4090,13 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
@@ -4123,18 +4105,18 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4145,7 +4127,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4157,13 +4139,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4214,44 +4196,44 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4263,7 +4245,7 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>171</v>
@@ -4271,7 +4253,9 @@
       <c r="M24" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4326,31 +4310,31 @@
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4363,10 +4347,10 @@
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>130</v>
@@ -4378,9 +4362,11 @@
         <v>177</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4446,51 +4432,47 @@
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4538,37 +4520,37 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4587,13 +4569,13 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4620,13 +4602,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4644,7 +4626,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>85</v>
@@ -4659,18 +4641,18 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4678,7 +4660,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>85</v>
@@ -4693,13 +4675,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4726,13 +4708,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4750,10 +4732,10 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>85</v>
@@ -4765,18 +4747,18 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4799,7 +4781,7 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>217</v>
@@ -4832,13 +4814,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4856,7 +4838,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4871,18 +4853,18 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4893,7 +4875,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4905,13 +4887,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4938,13 +4920,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -4962,13 +4944,13 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
@@ -4985,10 +4967,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4999,7 +4981,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5011,13 +4993,13 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5068,44 +5050,44 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5117,7 +5099,7 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>171</v>
@@ -5125,7 +5107,9 @@
       <c r="M32" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5180,31 +5164,31 @@
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5217,10 +5201,10 @@
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>130</v>
@@ -5232,9 +5216,11 @@
         <v>177</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5300,51 +5286,47 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5392,41 +5374,41 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>85</v>
@@ -5441,13 +5423,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5498,10 +5480,10 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>85</v>
@@ -5513,7 +5495,7 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5521,10 +5503,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5535,7 +5517,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5547,13 +5529,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5604,13 +5586,13 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
@@ -5619,7 +5601,7 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5627,10 +5609,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5650,16 +5632,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5686,13 +5668,11 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5710,7 +5690,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5733,10 +5713,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5756,10 +5736,10 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>243</v>
@@ -5792,11 +5772,13 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -5814,7 +5796,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5837,10 +5819,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5851,7 +5833,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5863,13 +5845,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5920,13 +5902,13 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -5943,10 +5925,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5969,13 +5951,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6026,7 +6008,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6038,32 +6020,32 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6075,7 +6057,7 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>171</v>
@@ -6083,7 +6065,9 @@
       <c r="M41" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6120,16 +6104,16 @@
         <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>173</v>
@@ -6138,38 +6122,40 @@
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D42" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6181,17 +6167,15 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6228,19 +6212,19 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6258,7 +6242,7 @@
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>174</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
@@ -6266,41 +6250,43 @@
         <v>256</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6366,51 +6352,47 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6458,25 +6440,25 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
@@ -6507,13 +6489,13 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6564,7 +6546,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6587,10 +6569,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6613,13 +6595,13 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6670,7 +6652,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6693,10 +6675,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6719,13 +6701,13 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6776,7 +6758,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6799,10 +6781,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6825,13 +6807,13 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6882,7 +6864,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6905,10 +6887,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6931,13 +6913,13 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6988,7 +6970,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7011,10 +6993,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7037,13 +7019,13 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7094,7 +7076,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7117,10 +7099,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7131,7 +7113,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -7143,13 +7125,13 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7200,13 +7182,13 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
@@ -7223,10 +7205,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7249,13 +7231,13 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7306,7 +7288,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7329,10 +7311,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7355,7 +7337,7 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>296</v>
@@ -7449,7 +7431,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7461,13 +7443,13 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7518,13 +7500,13 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
@@ -7541,10 +7523,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7555,7 +7537,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7564,16 +7546,16 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7624,13 +7606,13 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
@@ -7647,10 +7629,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7673,13 +7655,13 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7730,7 +7712,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7753,10 +7735,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7767,7 +7749,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7779,13 +7761,13 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7836,44 +7818,44 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -7885,7 +7867,7 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>171</v>
@@ -7893,7 +7875,9 @@
       <c r="M58" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -7948,31 +7932,31 @@
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7985,10 +7969,10 @@
         <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>130</v>
@@ -8000,9 +7984,11 @@
         <v>177</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8068,51 +8054,47 @@
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>181</v>
+        <v>313</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
       </c>
@@ -8160,33 +8142,33 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>183</v>
+        <v>312</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8194,10 +8176,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8209,13 +8191,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8266,13 +8248,13 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
@@ -8289,10 +8271,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8315,13 +8297,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8360,19 +8342,17 @@
         <v>75</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8395,10 +8375,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8409,7 +8389,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8421,13 +8401,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8466,54 +8446,56 @@
         <v>75</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8525,7 +8507,7 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>171</v>
@@ -8533,7 +8515,9 @@
       <c r="M64" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8588,31 +8572,31 @@
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8625,10 +8609,10 @@
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>130</v>
@@ -8640,9 +8624,11 @@
         <v>177</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
       </c>
@@ -8708,51 +8694,47 @@
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
       </c>
@@ -8800,33 +8782,33 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8834,10 +8816,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
@@ -8849,13 +8831,13 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8906,13 +8888,13 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
@@ -8929,10 +8911,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8955,13 +8937,13 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9012,7 +8994,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9035,12 +9017,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>75</v>
       </c>
@@ -9049,7 +9033,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
@@ -9061,13 +9045,13 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9118,7 +9102,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9141,14 +9125,12 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>75</v>
       </c>
@@ -9169,13 +9151,13 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="M70" t="s" s="2">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9226,44 +9208,44 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
@@ -9275,7 +9257,7 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>171</v>
@@ -9283,7 +9265,9 @@
       <c r="M71" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -9338,31 +9322,31 @@
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9375,10 +9359,10 @@
         <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>130</v>
@@ -9390,9 +9374,11 @@
         <v>177</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9458,51 +9444,47 @@
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
       </c>
@@ -9511,7 +9493,7 @@
         <v>75</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>75</v>
@@ -9550,33 +9532,33 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9584,10 +9566,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
@@ -9599,13 +9581,13 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9617,7 +9599,7 @@
         <v>75</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>75</v>
@@ -9656,13 +9638,13 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>75</v>
@@ -9679,10 +9661,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9705,13 +9687,13 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9762,7 +9744,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -9785,12 +9767,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>75</v>
       </c>
@@ -9799,7 +9783,7 @@
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -9811,13 +9795,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9868,7 +9852,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -9891,14 +9875,12 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>75</v>
       </c>
@@ -9919,13 +9901,13 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9976,44 +9958,44 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>75</v>
@@ -10025,7 +10007,7 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>171</v>
@@ -10033,7 +10015,9 @@
       <c r="M78" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -10088,31 +10072,31 @@
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10125,10 +10109,10 @@
         <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>130</v>
@@ -10140,9 +10124,11 @@
         <v>177</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>75</v>
       </c>
@@ -10208,51 +10194,47 @@
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>75</v>
       </c>
@@ -10261,7 +10243,7 @@
         <v>75</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>75</v>
@@ -10300,33 +10282,33 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10334,10 +10316,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -10349,13 +10331,13 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10367,7 +10349,7 @@
         <v>75</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>75</v>
@@ -10406,13 +10388,13 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>75</v>
@@ -10429,10 +10411,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10455,13 +10437,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10512,7 +10494,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -10535,12 +10517,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>75</v>
       </c>
@@ -10549,7 +10533,7 @@
         <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>75</v>
@@ -10561,13 +10545,13 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10618,7 +10602,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -10641,14 +10625,12 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>75</v>
       </c>
@@ -10669,13 +10651,13 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="M84" t="s" s="2">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10726,44 +10708,44 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>75</v>
@@ -10775,7 +10757,7 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>171</v>
@@ -10783,7 +10765,9 @@
       <c r="M85" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -10838,31 +10822,31 @@
         <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -10875,10 +10859,10 @@
         <v>75</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>130</v>
@@ -10890,9 +10874,11 @@
         <v>177</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>75</v>
       </c>
@@ -10958,51 +10944,47 @@
         <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>75</v>
       </c>
@@ -11011,7 +10993,7 @@
         <v>75</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>75</v>
+        <v>358</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>75</v>
@@ -11050,33 +11032,33 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11084,10 +11066,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
@@ -11099,13 +11081,13 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11117,7 +11099,7 @@
         <v>75</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>363</v>
+        <v>75</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>75</v>
@@ -11156,13 +11138,13 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>75</v>
@@ -11179,10 +11161,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11205,13 +11187,13 @@
         <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11262,7 +11244,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -11285,12 +11267,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>75</v>
       </c>
@@ -11299,7 +11283,7 @@
         <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>75</v>
@@ -11311,13 +11295,13 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11368,7 +11352,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11391,14 +11375,12 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>75</v>
       </c>
@@ -11419,13 +11401,13 @@
         <v>75</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="M91" t="s" s="2">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11476,44 +11458,44 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>75</v>
@@ -11525,7 +11507,7 @@
         <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>171</v>
@@ -11533,7 +11515,9 @@
       <c r="M92" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>75</v>
@@ -11588,31 +11572,31 @@
         <v>76</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -11625,10 +11609,10 @@
         <v>75</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>130</v>
@@ -11640,9 +11624,11 @@
         <v>177</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>75</v>
       </c>
@@ -11708,51 +11694,47 @@
         <v>75</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>75</v>
       </c>
@@ -11761,7 +11743,7 @@
         <v>75</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>75</v>
@@ -11800,33 +11782,33 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11834,10 +11816,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>75</v>
@@ -11849,13 +11831,13 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -11867,7 +11849,7 @@
         <v>75</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>75</v>
@@ -11906,13 +11888,13 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>75</v>
@@ -11929,10 +11911,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11955,13 +11937,13 @@
         <v>75</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12012,7 +11994,7 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -12035,12 +12017,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="D97" t="s" s="2">
         <v>75</v>
       </c>
@@ -12049,7 +12033,7 @@
         <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>75</v>
@@ -12061,13 +12045,13 @@
         <v>75</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12118,7 +12102,7 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -12141,14 +12125,12 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
         <v>75</v>
       </c>
@@ -12169,13 +12151,13 @@
         <v>75</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L98" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="M98" t="s" s="2">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12226,44 +12208,44 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>75</v>
@@ -12275,7 +12257,7 @@
         <v>75</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>171</v>
@@ -12283,7 +12265,9 @@
       <c r="M99" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>75</v>
@@ -12338,31 +12322,31 @@
         <v>76</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -12375,10 +12359,10 @@
         <v>75</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>130</v>
@@ -12390,9 +12374,11 @@
         <v>177</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>75</v>
       </c>
@@ -12458,51 +12444,47 @@
         <v>75</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>75</v>
       </c>
@@ -12511,7 +12493,7 @@
         <v>75</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>75</v>
+        <v>376</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>75</v>
@@ -12550,33 +12532,33 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12584,10 +12566,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>75</v>
@@ -12599,13 +12581,13 @@
         <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12617,7 +12599,7 @@
         <v>75</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>381</v>
+        <v>75</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>75</v>
@@ -12656,13 +12638,13 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>75</v>
@@ -12679,10 +12661,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12705,13 +12687,13 @@
         <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12762,7 +12744,7 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -12785,12 +12767,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="D104" t="s" s="2">
         <v>75</v>
       </c>
@@ -12799,7 +12783,7 @@
         <v>76</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>75</v>
@@ -12811,13 +12795,13 @@
         <v>75</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12868,7 +12852,7 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -12891,14 +12875,12 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>75</v>
       </c>
@@ -12919,13 +12901,13 @@
         <v>75</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L105" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="M105" t="s" s="2">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12976,44 +12958,44 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>75</v>
@@ -13025,7 +13007,7 @@
         <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L106" t="s" s="2">
         <v>171</v>
@@ -13033,7 +13015,9 @@
       <c r="M106" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>75</v>
@@ -13088,31 +13072,31 @@
         <v>76</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13125,10 +13109,10 @@
         <v>75</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>130</v>
@@ -13140,9 +13124,11 @@
         <v>177</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>75</v>
       </c>
@@ -13208,51 +13194,47 @@
         <v>75</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>75</v>
       </c>
@@ -13261,7 +13243,7 @@
         <v>75</v>
       </c>
       <c r="S108" t="s" s="2">
-        <v>75</v>
+        <v>385</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>75</v>
@@ -13300,33 +13282,33 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13334,10 +13316,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>75</v>
@@ -13349,13 +13331,13 @@
         <v>75</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13367,7 +13349,7 @@
         <v>75</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>75</v>
@@ -13406,13 +13388,13 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>75</v>
@@ -13429,10 +13411,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13455,13 +13437,13 @@
         <v>75</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13512,7 +13494,7 @@
         <v>75</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -13535,10 +13517,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13549,7 +13531,7 @@
         <v>76</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>75</v>
@@ -13561,13 +13543,13 @@
         <v>75</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>221</v>
+        <v>389</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -13618,13 +13600,13 @@
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>75</v>
@@ -13633,18 +13615,18 @@
         <v>97</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>75</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13655,7 +13637,7 @@
         <v>76</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>75</v>
@@ -13667,15 +13649,17 @@
         <v>75</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>75</v>
@@ -13724,13 +13708,13 @@
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>75</v>
@@ -13739,18 +13723,18 @@
         <v>97</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13761,7 +13745,7 @@
         <v>76</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>75</v>
@@ -13773,7 +13757,7 @@
         <v>75</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>400</v>
+        <v>99</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>401</v>
@@ -13832,13 +13816,13 @@
         <v>75</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>75</v>
@@ -13847,18 +13831,18 @@
         <v>97</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13884,14 +13868,12 @@
         <v>99</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N114" t="s" s="2">
         <v>408</v>
       </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>75</v>
@@ -13940,7 +13922,7 @@
         <v>75</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -13955,18 +13937,18 @@
         <v>97</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>409</v>
+        <v>75</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>410</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13977,7 +13959,7 @@
         <v>76</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>75</v>
@@ -13989,13 +13971,13 @@
         <v>75</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>99</v>
+        <v>410</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14046,13 +14028,13 @@
         <v>75</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>75</v>
@@ -14064,7 +14046,7 @@
         <v>75</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>75</v>
+        <v>413</v>
       </c>
     </row>
     <row r="116">
@@ -14083,7 +14065,7 @@
         <v>76</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>75</v>
@@ -14095,13 +14077,13 @@
         <v>75</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14158,7 +14140,7 @@
         <v>76</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>75</v>
@@ -14170,15 +14152,15 @@
         <v>75</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>418</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14198,16 +14180,16 @@
         <v>75</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>263</v>
+        <v>418</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14258,7 +14240,7 @@
         <v>75</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
@@ -14281,10 +14263,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14295,7 +14277,7 @@
         <v>76</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>75</v>
@@ -14304,16 +14286,16 @@
         <v>75</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -14364,13 +14346,13 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>75</v>
@@ -14387,10 +14369,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14401,7 +14383,7 @@
         <v>76</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>75</v>
@@ -14413,13 +14395,13 @@
         <v>75</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L119" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="M119" t="s" s="2">
-        <v>428</v>
+        <v>167</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14470,44 +14452,44 @@
         <v>75</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>426</v>
+        <v>168</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>75</v>
@@ -14519,7 +14501,7 @@
         <v>75</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>171</v>
@@ -14527,7 +14509,9 @@
       <c r="M120" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N120" s="2"/>
+      <c r="N120" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>75</v>
@@ -14582,31 +14566,31 @@
         <v>76</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -14619,10 +14603,10 @@
         <v>75</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>130</v>
@@ -14634,9 +14618,11 @@
         <v>177</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>75</v>
       </c>
@@ -14702,51 +14688,47 @@
         <v>75</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>75</v>
       </c>
@@ -14794,33 +14776,33 @@
         <v>75</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>183</v>
+        <v>427</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14828,7 +14810,7 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>85</v>
@@ -14843,13 +14825,13 @@
         <v>75</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>221</v>
+        <v>431</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -14900,10 +14882,10 @@
         <v>75</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>85</v>
@@ -14923,10 +14905,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14949,13 +14931,13 @@
         <v>75</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -15006,7 +14988,7 @@
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>76</v>
@@ -15024,112 +15006,6 @@
         <v>75</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL125" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-devicedefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-26T17:10:09+00:00</t>
+    <t>2026-02-27T10:05:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,6 +474,22 @@
   </si>
   <si>
     <t>Extension créée dans ce volet pour représenter la référence distributeur.</t>
+  </si>
+  <si>
+    <t>DeviceDefinition.extension:CodeEMDN</t>
+  </si>
+  <si>
+    <t>CodeEMDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tdmi/StructureDefinition/dmi-code-emdn}
+</t>
+  </si>
+  <si>
+    <t>DMI Code EMDN</t>
+  </si>
+  <si>
+    <t>Extension créée dans ce volet pour représenter le code EMDN.</t>
   </si>
   <si>
     <t>DeviceDefinition.modifierExtension</t>
@@ -1697,7 +1713,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL124"/>
+  <dimension ref="A1:AL125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2940,43 +2956,41 @@
         <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
@@ -3024,7 +3038,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3033,7 +3047,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>136</v>
@@ -3042,19 +3056,19 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3067,22 +3081,26 @@
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -3130,7 +3148,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3142,13 +3160,13 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -3251,7 +3269,7 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -3259,10 +3277,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3273,7 +3291,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3285,13 +3303,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3342,44 +3360,44 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3391,7 +3409,7 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>171</v>
@@ -3399,9 +3417,7 @@
       <c r="M16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3456,31 +3472,31 @@
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3493,10 +3509,10 @@
         <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>130</v>
@@ -3508,11 +3524,9 @@
         <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3578,7 +3592,7 @@
         <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -3590,35 +3604,39 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3666,33 +3684,33 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3715,13 +3733,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3772,7 +3790,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>85</v>
@@ -3795,10 +3813,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3824,10 +3842,10 @@
         <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3878,7 +3896,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>85</v>
@@ -3901,10 +3919,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3912,7 +3930,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>85</v>
@@ -3927,13 +3945,13 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3984,10 +4002,10 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>85</v>
@@ -3999,18 +4017,18 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4021,7 +4039,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4033,7 +4051,7 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>195</v>
@@ -4090,13 +4108,13 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
@@ -4105,18 +4123,18 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>75</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4127,7 +4145,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4139,13 +4157,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4196,44 +4214,44 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4245,7 +4263,7 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>171</v>
@@ -4253,9 +4271,7 @@
       <c r="M24" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4310,31 +4326,31 @@
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4347,10 +4363,10 @@
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>130</v>
@@ -4362,11 +4378,9 @@
         <v>177</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4432,47 +4446,51 @@
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4520,37 +4538,37 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4569,13 +4587,13 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4602,13 +4620,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4626,7 +4644,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>85</v>
@@ -4641,18 +4659,18 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4660,7 +4678,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>85</v>
@@ -4675,13 +4693,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4708,13 +4726,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4732,10 +4750,10 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>85</v>
@@ -4747,18 +4765,18 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4781,7 +4799,7 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>217</v>
@@ -4814,13 +4832,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4838,7 +4856,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4853,18 +4871,18 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4875,7 +4893,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4887,13 +4905,13 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4920,13 +4938,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -4944,13 +4962,13 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
@@ -4967,10 +4985,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4981,7 +4999,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4993,13 +5011,13 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5050,44 +5068,44 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5099,7 +5117,7 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>171</v>
@@ -5107,9 +5125,7 @@
       <c r="M32" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5164,31 +5180,31 @@
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5201,10 +5217,10 @@
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>130</v>
@@ -5216,11 +5232,9 @@
         <v>177</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5286,47 +5300,51 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5374,41 +5392,41 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>85</v>
@@ -5423,13 +5441,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5480,10 +5498,10 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>85</v>
@@ -5495,7 +5513,7 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5503,10 +5521,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5517,7 +5535,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5529,13 +5547,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5586,13 +5604,13 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
@@ -5601,7 +5619,7 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5609,10 +5627,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5632,16 +5650,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5668,11 +5686,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5690,7 +5710,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5713,10 +5733,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5736,10 +5756,10 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>243</v>
@@ -5772,13 +5792,11 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -5796,7 +5814,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5819,10 +5837,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5833,7 +5851,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5845,13 +5863,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5902,13 +5920,13 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -5925,10 +5943,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5951,13 +5969,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6008,7 +6026,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6020,32 +6038,32 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6057,7 +6075,7 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>171</v>
@@ -6065,9 +6083,7 @@
       <c r="M41" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6104,16 +6120,16 @@
         <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>173</v>
@@ -6122,40 +6138,38 @@
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6167,15 +6181,17 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6212,19 +6228,19 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6242,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43">
@@ -6250,43 +6266,41 @@
         <v>256</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="D43" t="s" s="2">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6352,47 +6366,51 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6440,25 +6458,25 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
@@ -6489,13 +6507,13 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6546,7 +6564,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6569,10 +6587,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6595,13 +6613,13 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6652,7 +6670,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6675,10 +6693,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6701,13 +6719,13 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6758,7 +6776,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6781,10 +6799,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6807,13 +6825,13 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6864,7 +6882,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6887,10 +6905,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6913,13 +6931,13 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6970,7 +6988,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6993,10 +7011,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7019,13 +7037,13 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7076,7 +7094,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7099,10 +7117,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7113,7 +7131,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -7125,13 +7143,13 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7182,13 +7200,13 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
@@ -7205,10 +7223,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7231,13 +7249,13 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7288,7 +7306,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7311,10 +7329,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7337,7 +7355,7 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>296</v>
@@ -7431,7 +7449,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7443,13 +7461,13 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7500,13 +7518,13 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
@@ -7523,10 +7541,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7537,7 +7555,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7546,16 +7564,16 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7606,13 +7624,13 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
@@ -7629,10 +7647,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7655,13 +7673,13 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7712,7 +7730,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7735,10 +7753,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7749,7 +7767,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7761,13 +7779,13 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7818,44 +7836,44 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -7867,7 +7885,7 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>171</v>
@@ -7875,9 +7893,7 @@
       <c r="M58" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N58" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -7932,31 +7948,31 @@
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7969,10 +7985,10 @@
         <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>130</v>
@@ -7984,11 +8000,9 @@
         <v>177</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8054,47 +8068,51 @@
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
       </c>
@@ -8142,33 +8160,33 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8176,10 +8194,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8191,13 +8209,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8248,13 +8266,13 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
@@ -8271,10 +8289,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8297,13 +8315,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8342,17 +8360,19 @@
         <v>75</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AC62" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8375,10 +8395,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8389,7 +8409,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8401,13 +8421,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8446,56 +8466,54 @@
         <v>75</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8507,7 +8525,7 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>171</v>
@@ -8515,9 +8533,7 @@
       <c r="M64" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8572,31 +8588,31 @@
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8609,10 +8625,10 @@
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>130</v>
@@ -8624,11 +8640,9 @@
         <v>177</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>75</v>
       </c>
@@ -8694,47 +8708,51 @@
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>326</v>
+        <v>181</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>75</v>
       </c>
@@ -8782,33 +8800,33 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8816,10 +8834,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
@@ -8831,13 +8849,13 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8888,13 +8906,13 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
@@ -8911,10 +8929,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8937,13 +8955,13 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8994,7 +9012,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9017,14 +9035,12 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>75</v>
       </c>
@@ -9033,7 +9049,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
@@ -9045,13 +9061,13 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9102,7 +9118,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9125,12 +9141,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>75</v>
       </c>
@@ -9151,13 +9169,13 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9208,44 +9226,44 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
@@ -9257,7 +9275,7 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>171</v>
@@ -9265,9 +9283,7 @@
       <c r="M71" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -9322,31 +9338,31 @@
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9359,10 +9375,10 @@
         <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>130</v>
@@ -9374,11 +9390,9 @@
         <v>177</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9444,47 +9458,51 @@
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>326</v>
+        <v>181</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
       </c>
@@ -9493,7 +9511,7 @@
         <v>75</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>75</v>
@@ -9532,33 +9550,33 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9566,10 +9584,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
@@ -9581,13 +9599,13 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9599,7 +9617,7 @@
         <v>75</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>75</v>
@@ -9638,13 +9656,13 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>75</v>
@@ -9661,10 +9679,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9687,13 +9705,13 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9744,7 +9762,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -9767,14 +9785,12 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>75</v>
       </c>
@@ -9783,7 +9799,7 @@
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -9795,13 +9811,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9852,7 +9868,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -9875,12 +9891,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>75</v>
       </c>
@@ -9901,13 +9919,13 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9958,44 +9976,44 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>75</v>
@@ -10007,7 +10025,7 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>171</v>
@@ -10015,9 +10033,7 @@
       <c r="M78" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N78" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -10072,31 +10088,31 @@
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10109,10 +10125,10 @@
         <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>130</v>
@@ -10124,11 +10140,9 @@
         <v>177</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>75</v>
       </c>
@@ -10194,47 +10208,51 @@
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>326</v>
+        <v>181</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>75</v>
       </c>
@@ -10243,7 +10261,7 @@
         <v>75</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>75</v>
@@ -10282,33 +10300,33 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10316,10 +10334,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>75</v>
@@ -10331,13 +10349,13 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10349,7 +10367,7 @@
         <v>75</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>75</v>
@@ -10388,13 +10406,13 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>75</v>
@@ -10411,10 +10429,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10437,13 +10455,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10494,7 +10512,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -10517,14 +10535,12 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>75</v>
       </c>
@@ -10533,7 +10549,7 @@
         <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>75</v>
@@ -10545,13 +10561,13 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10602,7 +10618,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -10625,12 +10641,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>75</v>
       </c>
@@ -10651,13 +10669,13 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10708,44 +10726,44 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>75</v>
@@ -10757,7 +10775,7 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>171</v>
@@ -10765,9 +10783,7 @@
       <c r="M85" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N85" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -10822,31 +10838,31 @@
         <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -10859,10 +10875,10 @@
         <v>75</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>130</v>
@@ -10874,11 +10890,9 @@
         <v>177</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>75</v>
       </c>
@@ -10944,47 +10958,51 @@
         <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>326</v>
+        <v>181</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>75</v>
       </c>
@@ -10993,7 +11011,7 @@
         <v>75</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>358</v>
+        <v>75</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>75</v>
@@ -11032,33 +11050,33 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11066,10 +11084,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
@@ -11081,13 +11099,13 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11099,7 +11117,7 @@
         <v>75</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>75</v>
@@ -11138,13 +11156,13 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>75</v>
@@ -11161,10 +11179,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11187,13 +11205,13 @@
         <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11244,7 +11262,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -11267,14 +11285,12 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
         <v>75</v>
       </c>
@@ -11283,7 +11299,7 @@
         <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>75</v>
@@ -11295,13 +11311,13 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11352,7 +11368,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11375,12 +11391,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D91" t="s" s="2">
         <v>75</v>
       </c>
@@ -11401,13 +11419,13 @@
         <v>75</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11458,44 +11476,44 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>75</v>
@@ -11507,7 +11525,7 @@
         <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>171</v>
@@ -11515,9 +11533,7 @@
       <c r="M92" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N92" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>75</v>
@@ -11572,31 +11588,31 @@
         <v>76</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -11609,10 +11625,10 @@
         <v>75</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>130</v>
@@ -11624,11 +11640,9 @@
         <v>177</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>75</v>
       </c>
@@ -11694,47 +11708,51 @@
         <v>75</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>326</v>
+        <v>181</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>75</v>
       </c>
@@ -11743,7 +11761,7 @@
         <v>75</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>75</v>
@@ -11782,33 +11800,33 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11816,10 +11834,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>75</v>
@@ -11831,13 +11849,13 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -11849,7 +11867,7 @@
         <v>75</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>75</v>
@@ -11888,13 +11906,13 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>75</v>
@@ -11911,10 +11929,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11937,13 +11955,13 @@
         <v>75</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -11994,7 +12012,7 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -12017,14 +12035,12 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
         <v>75</v>
       </c>
@@ -12033,7 +12049,7 @@
         <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>75</v>
@@ -12045,13 +12061,13 @@
         <v>75</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12102,7 +12118,7 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -12125,12 +12141,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="D98" t="s" s="2">
         <v>75</v>
       </c>
@@ -12151,13 +12169,13 @@
         <v>75</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12208,44 +12226,44 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>75</v>
@@ -12257,7 +12275,7 @@
         <v>75</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>171</v>
@@ -12265,9 +12283,7 @@
       <c r="M99" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N99" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>75</v>
@@ -12322,31 +12338,31 @@
         <v>76</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -12359,10 +12375,10 @@
         <v>75</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>130</v>
@@ -12374,11 +12390,9 @@
         <v>177</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>75</v>
       </c>
@@ -12444,47 +12458,51 @@
         <v>75</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>326</v>
+        <v>181</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>75</v>
       </c>
@@ -12493,7 +12511,7 @@
         <v>75</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>376</v>
+        <v>75</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>75</v>
@@ -12532,33 +12550,33 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12566,10 +12584,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>75</v>
@@ -12581,13 +12599,13 @@
         <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12599,7 +12617,7 @@
         <v>75</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>75</v>
+        <v>381</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>75</v>
@@ -12638,13 +12656,13 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>75</v>
@@ -12661,10 +12679,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12687,13 +12705,13 @@
         <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12744,7 +12762,7 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -12767,14 +12785,12 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
         <v>75</v>
       </c>
@@ -12783,7 +12799,7 @@
         <v>76</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>75</v>
@@ -12795,13 +12811,13 @@
         <v>75</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12852,7 +12868,7 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -12875,12 +12891,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="D105" t="s" s="2">
         <v>75</v>
       </c>
@@ -12901,13 +12919,13 @@
         <v>75</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12958,44 +12976,44 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>75</v>
@@ -13007,7 +13025,7 @@
         <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L106" t="s" s="2">
         <v>171</v>
@@ -13015,9 +13033,7 @@
       <c r="M106" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N106" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>75</v>
@@ -13072,31 +13088,31 @@
         <v>76</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13109,10 +13125,10 @@
         <v>75</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>130</v>
@@ -13124,11 +13140,9 @@
         <v>177</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>75</v>
       </c>
@@ -13194,47 +13208,51 @@
         <v>75</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>326</v>
+        <v>181</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>75</v>
       </c>
@@ -13243,7 +13261,7 @@
         <v>75</v>
       </c>
       <c r="S108" t="s" s="2">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>75</v>
@@ -13282,33 +13300,33 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13316,10 +13334,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>75</v>
@@ -13331,13 +13349,13 @@
         <v>75</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13349,7 +13367,7 @@
         <v>75</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>75</v>
@@ -13388,13 +13406,13 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>75</v>
@@ -13411,10 +13429,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13437,13 +13455,13 @@
         <v>75</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13494,7 +13512,7 @@
         <v>75</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -13517,10 +13535,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13531,7 +13549,7 @@
         <v>76</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>75</v>
@@ -13543,13 +13561,13 @@
         <v>75</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>389</v>
+        <v>221</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -13600,13 +13618,13 @@
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>75</v>
@@ -13615,18 +13633,18 @@
         <v>97</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>392</v>
+        <v>75</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>393</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13637,7 +13655,7 @@
         <v>76</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>75</v>
@@ -13649,17 +13667,15 @@
         <v>75</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M112" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>75</v>
@@ -13708,13 +13724,13 @@
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>75</v>
@@ -13723,18 +13739,18 @@
         <v>97</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13745,7 +13761,7 @@
         <v>76</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>75</v>
@@ -13757,7 +13773,7 @@
         <v>75</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>99</v>
+        <v>400</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>401</v>
@@ -13816,13 +13832,13 @@
         <v>75</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>75</v>
@@ -13831,18 +13847,18 @@
         <v>97</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL113" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13868,12 +13884,14 @@
         <v>99</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>75</v>
@@ -13922,7 +13940,7 @@
         <v>75</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -13937,18 +13955,18 @@
         <v>97</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>75</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13959,7 +13977,7 @@
         <v>76</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>75</v>
@@ -13971,13 +13989,13 @@
         <v>75</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14028,13 +14046,13 @@
         <v>75</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>75</v>
@@ -14046,7 +14064,7 @@
         <v>75</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>413</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116">
@@ -14065,7 +14083,7 @@
         <v>76</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>75</v>
@@ -14077,13 +14095,13 @@
         <v>75</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>258</v>
+        <v>415</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14140,7 +14158,7 @@
         <v>76</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>75</v>
@@ -14152,15 +14170,15 @@
         <v>75</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>75</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14180,16 +14198,16 @@
         <v>75</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>418</v>
+        <v>263</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14240,7 +14258,7 @@
         <v>75</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
@@ -14263,10 +14281,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14277,7 +14295,7 @@
         <v>76</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>75</v>
@@ -14286,16 +14304,16 @@
         <v>75</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>161</v>
+        <v>423</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -14346,13 +14364,13 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>75</v>
@@ -14369,10 +14387,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14383,7 +14401,7 @@
         <v>76</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>75</v>
@@ -14395,13 +14413,13 @@
         <v>75</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>166</v>
+        <v>427</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>167</v>
+        <v>428</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14452,44 +14470,44 @@
         <v>75</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>168</v>
+        <v>426</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>75</v>
@@ -14501,7 +14519,7 @@
         <v>75</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>171</v>
@@ -14509,9 +14527,7 @@
       <c r="M120" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N120" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>75</v>
@@ -14566,31 +14582,31 @@
         <v>76</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -14603,10 +14619,10 @@
         <v>75</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>130</v>
@@ -14618,11 +14634,9 @@
         <v>177</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>75</v>
       </c>
@@ -14688,47 +14702,51 @@
         <v>75</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>428</v>
+        <v>181</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>75</v>
       </c>
@@ -14776,33 +14794,33 @@
         <v>75</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>427</v>
+        <v>183</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14810,7 +14828,7 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>85</v>
@@ -14825,13 +14843,13 @@
         <v>75</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>431</v>
+        <v>221</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -14882,10 +14900,10 @@
         <v>75</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>85</v>
@@ -14905,10 +14923,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14931,13 +14949,13 @@
         <v>75</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -14988,7 +15006,7 @@
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>76</v>
@@ -15006,6 +15024,112 @@
         <v>75</v>
       </c>
       <c r="AL124" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL125" t="s" s="2">
         <v>75</v>
       </c>
     </row>
